--- a/app/data/params/ricotta.xlsx
+++ b/app/data/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -52,10 +52,7 @@
     <t xml:space="preserve">Выход</t>
   </si>
   <si>
-    <t xml:space="preserve">Срок хранения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Упаковщик</t>
+    <t xml:space="preserve">Количество баков</t>
   </si>
   <si>
     <t xml:space="preserve">Скорость упаковки</t>
@@ -278,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,11 +292,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,10 +381,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q33" activeCellId="0" sqref="Q33"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,10 +394,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="15" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="14" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,615 +461,690 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.37</v>
       </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N2" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V2" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.25</v>
       </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="N3" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V3" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N4" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V4" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="N5" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.18</v>
       </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>65</v>
+      </c>
       <c r="N6" s="0" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.14</v>
       </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>65</v>
+      </c>
       <c r="N7" s="0" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>55</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.3</v>
       </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="N8" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V9" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="N10" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V10" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N11" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V11" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N12" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.18</v>
@@ -1079,52 +1155,58 @@
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N13" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.25</v>
@@ -1135,164 +1217,184 @@
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N14" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N15" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K16" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N16" s="0" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2</v>
@@ -1303,252 +1405,286 @@
       <c r="J17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N17" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V17" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N18" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K19" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>75</v>
+      </c>
       <c r="N19" s="0" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K20" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N20" s="0" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0.25</v>
       </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K21" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="N21" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" s="0" t="n">
         <v>5</v>
       </c>
     </row>

--- a/app/data/params/ricotta.xlsx
+++ b/app/data/params/ricotta.xlsx
@@ -275,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,10 +298,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -384,7 +380,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>3</v>
@@ -893,7 +889,7 @@
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="n">

--- a/app/data/params/ricotta.xlsx
+++ b/app/data/params/ricotta.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>10</v>
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>10</v>

--- a/app/data/params/ricotta.xlsx
+++ b/app/data/params/ricotta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -82,96 +82,81 @@
     <t xml:space="preserve">Слив</t>
   </si>
   <si>
-    <t xml:space="preserve">Рикотта "Pretto" (зернистая), 30%, 0,37 кг, в/у</t>
+    <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,25 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Рикотта</t>
   </si>
   <si>
+    <t xml:space="preserve">Unagrande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,5 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Aventino", 45%, 0,2 кг, п/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aventino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Pretto", 45%, 0,5 кг, пл/с</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pretto</t>
   </si>
   <si>
-    <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,25 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unagrande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,5 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "Aventino", 45%, 0,2 кг, п/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aventino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта с шоколадом "Unagrande", 30%, 0,18 кг, пл/с</t>
+    <t xml:space="preserve">Рикотта "Pretto", 45%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Фермерская коллекция", 45%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фермерская коллекция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "ВкусВилл", 45%, 0,18 кг, пл/с (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВкусВилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Красная птица", 30%,  0,25 кг, пл/с (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красная птица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с ванилью "Красная птица", 30%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваниль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта шоколадно-ореховая "Красная птица", 35%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шоколад-орех</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "SPAR", 30%, 0,2 кг, пл/с (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с ванилью "Бонджорно", 30%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бонджорно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с шоколадом "Бонджорно", 30%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Шоколад</t>
   </si>
   <si>
-    <t xml:space="preserve">Рикотта с шоколадом "Unagrande", 30%, 0,14 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта сицилийская "Unagrande", 55%, 0,3 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта сицилийская "Unagrande", 55%, ВЕС, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "Pretto", 45%, 0,5 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "Pretto", 45%, 0,2 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "Фермерская коллекция", 45%, 0,2 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фермерская коллекция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "ВкусВилл", 45%, 0,18 кг, пл/с (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВкусВилл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "Красная птица", 30%,  0,25 кг, пл/с (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красная птица</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта с ванилью "Красная птица", 30%, 0,2 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваниль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта шоколадно-ореховая "Красная птица", 35%, 0,2 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шоколад-орех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта "SPAR", 30%, 0,2 кг, пл/с (6 шт)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта с ванилью "Бонджорно", 30%, 0,2 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бонджорно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рикотта с шоколадом "Бонджорно", 30%, 0,2 кг, пл/с</t>
-  </si>
-  <si>
     <t xml:space="preserve">Рикотта шоколадно-ореховая "Бонджорно", 35%, 0,2 кг, пл/с</t>
   </si>
   <si>
@@ -179,6 +164,18 @@
   </si>
   <si>
     <t xml:space="preserve">Глобус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта с медом "Бонджорно", 30%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рикотта "Metro Chef" 45%, 0,5 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Chef</t>
   </si>
 </sst>
 </file>
@@ -188,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -218,6 +215,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,11 +301,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,10 +398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,13 +482,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>21</v>
@@ -475,18 +496,20 @@
       <c r="F2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>3</v>
@@ -521,7 +544,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -535,13 +558,15 @@
       <c r="F3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
@@ -552,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>10</v>
@@ -581,38 +606,40 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>10</v>
@@ -641,7 +668,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -655,13 +682,15 @@
       <c r="F5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
@@ -672,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>10</v>
@@ -701,16 +730,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>21</v>
@@ -718,27 +744,29 @@
       <c r="F6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
+      <c r="G6" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>10</v>
@@ -756,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>5</v>
@@ -764,44 +792,43 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" s="0" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>10</v>
@@ -819,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>5</v>
@@ -827,13 +854,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>21</v>
@@ -841,13 +868,15 @@
       <c r="F8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>0.18</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
@@ -858,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>10</v>
@@ -887,13 +916,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>21</v>
@@ -901,22 +930,26 @@
       <c r="F9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>10</v>
@@ -945,13 +978,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>21</v>
@@ -959,27 +995,29 @@
       <c r="F10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>22</v>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>10</v>
@@ -997,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>5</v>
@@ -1005,41 +1043,46 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>10</v>
@@ -1057,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>5</v>
@@ -1065,13 +1108,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>21</v>
@@ -1079,18 +1122,20 @@
       <c r="F12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>3</v>
@@ -1125,13 +1170,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>21</v>
@@ -1139,29 +1187,29 @@
       <c r="F13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
+      <c r="G13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>10</v>
@@ -1179,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>5</v>
@@ -1187,43 +1235,46 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
+      <c r="G14" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>10</v>
@@ -1241,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>5</v>
@@ -1249,35 +1300,37 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>2</v>
@@ -1286,7 +1339,7 @@
         <v>50</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>10</v>
@@ -1312,16 +1365,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>21</v>
@@ -1329,27 +1379,29 @@
       <c r="F16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
+      <c r="G16" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>10</v>
@@ -1367,30 +1419,33 @@
         <v>10</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>46</v>
+      <c r="G17" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2</v>
@@ -1402,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>50</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>10</v>
@@ -1429,24 +1484,21 @@
         <v>10</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>21</v>
@@ -1454,27 +1506,29 @@
       <c r="F18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>48</v>
+      <c r="G18" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I18" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>10</v>
@@ -1492,198 +1546,17 @@
         <v>10</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/params/ricotta.xlsx
+++ b/app/data/params/ricotta.xlsx
@@ -221,20 +221,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -284,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,7 +305,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,15 +313,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,7 +358,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -400,8 +412,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>10</v>
@@ -608,7 +620,7 @@
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -639,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>10</v>
@@ -763,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>10</v>
@@ -794,7 +806,7 @@
       <c r="A7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -825,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>10</v>
@@ -887,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>10</v>
@@ -918,7 +930,7 @@
       <c r="A9" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -949,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>10</v>
@@ -980,7 +992,7 @@
       <c r="A10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1045,7 +1057,7 @@
       <c r="A11" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1079,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>55</v>
@@ -1141,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>10</v>
@@ -1172,7 +1184,7 @@
       <c r="A13" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -1237,7 +1249,7 @@
       <c r="A14" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1302,7 +1314,7 @@
       <c r="A15" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1336,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>55</v>
@@ -1367,7 +1379,7 @@
       <c r="A16" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -1429,7 +1441,7 @@
       <c r="A17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1494,7 +1506,7 @@
       <c r="A18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1506,7 +1518,7 @@
       <c r="F18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="0" t="n">

--- a/app/data/params/ricotta.xlsx
+++ b/app/data/params/ricotta.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,7 +524,7 @@
         <v>300</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>40</v>
@@ -586,7 +586,7 @@
         <v>300</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>25</v>

--- a/app/data/params/ricotta.xlsx
+++ b/app/data/params/ricotta.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1094,7 +1094,7 @@
         <v>75</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>10</v>
@@ -1286,7 +1286,7 @@
         <v>75</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>10</v>
@@ -1351,7 +1351,7 @@
         <v>75</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>10</v>
